--- a/Code/Results/Cases/Case_9_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.75525891973803</v>
+        <v>13.69976506109868</v>
       </c>
       <c r="C2">
-        <v>9.46033887983304</v>
+        <v>9.571322158426653</v>
       </c>
       <c r="D2">
-        <v>5.273668760539261</v>
+        <v>5.328712740492998</v>
       </c>
       <c r="E2">
-        <v>28.5193263677944</v>
+        <v>28.53970159988707</v>
       </c>
       <c r="F2">
-        <v>17.07710933900624</v>
+        <v>16.63767416882525</v>
       </c>
       <c r="G2">
-        <v>20.8707728976846</v>
+        <v>19.44230876390113</v>
       </c>
       <c r="H2">
-        <v>2.689825525008497</v>
+        <v>2.70461607968067</v>
       </c>
       <c r="I2">
-        <v>2.496493707261175</v>
+        <v>2.527840211601895</v>
       </c>
       <c r="J2">
-        <v>8.678536467593343</v>
+        <v>8.99012461354512</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.39514416130759</v>
       </c>
       <c r="M2">
-        <v>12.64640515403748</v>
+        <v>8.017419544573388</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.73274034152858</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.93868816861888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.59479224461976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.89738603889086</v>
+        <v>12.87450927691177</v>
       </c>
       <c r="C3">
-        <v>9.125369486792222</v>
+        <v>9.118987202887377</v>
       </c>
       <c r="D3">
-        <v>5.063446232253577</v>
+        <v>5.097608361766032</v>
       </c>
       <c r="E3">
-        <v>26.67523783012072</v>
+        <v>26.70382397588239</v>
       </c>
       <c r="F3">
-        <v>16.80289840597441</v>
+        <v>16.41882079852462</v>
       </c>
       <c r="G3">
-        <v>20.57125379792581</v>
+        <v>19.25703010945932</v>
       </c>
       <c r="H3">
-        <v>2.468799729926793</v>
+        <v>2.489244902438442</v>
       </c>
       <c r="I3">
-        <v>2.641780165424392</v>
+        <v>2.548082418935121</v>
       </c>
       <c r="J3">
-        <v>8.714829316181113</v>
+        <v>9.008360079199065</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.57366331977264</v>
       </c>
       <c r="M3">
-        <v>11.99300426575295</v>
+        <v>8.101783035980484</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.06322666373146</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.92381886384628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.61581412543332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.33875278969959</v>
+        <v>12.33744732260242</v>
       </c>
       <c r="C4">
-        <v>8.916401298187616</v>
+        <v>8.835184625713824</v>
       </c>
       <c r="D4">
-        <v>4.929448789666406</v>
+        <v>4.950263638163474</v>
       </c>
       <c r="E4">
-        <v>25.47791585925857</v>
+        <v>25.51188126674964</v>
       </c>
       <c r="F4">
-        <v>16.6401647280394</v>
+        <v>16.28913914303124</v>
       </c>
       <c r="G4">
-        <v>20.39559822352433</v>
+        <v>19.15330275320087</v>
       </c>
       <c r="H4">
-        <v>2.328202760406148</v>
+        <v>2.352206054790156</v>
       </c>
       <c r="I4">
-        <v>2.734963865834634</v>
+        <v>2.630398589937725</v>
       </c>
       <c r="J4">
-        <v>8.739646761875745</v>
+        <v>9.020414678396167</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.68635378652303</v>
       </c>
       <c r="M4">
-        <v>11.57325946751066</v>
+        <v>8.171846729703324</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.63316682052748</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.92005535983428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.63293275730003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.10013960917754</v>
+        <v>12.10814911573438</v>
       </c>
       <c r="C5">
-        <v>8.839425681228477</v>
+        <v>8.727605275309978</v>
       </c>
       <c r="D5">
-        <v>4.875365410531638</v>
+        <v>4.890594356481933</v>
       </c>
       <c r="E5">
-        <v>24.97344686038348</v>
+        <v>25.00970813541017</v>
       </c>
       <c r="F5">
-        <v>16.56681491318843</v>
+        <v>16.22934818192333</v>
       </c>
       <c r="G5">
-        <v>20.31115575210934</v>
+        <v>19.09892848391873</v>
       </c>
       <c r="H5">
-        <v>2.269536040164701</v>
+        <v>2.295018414822413</v>
       </c>
       <c r="I5">
-        <v>2.776976504986841</v>
+        <v>2.668489005598716</v>
       </c>
       <c r="J5">
-        <v>8.748026950172656</v>
+        <v>9.023308008736935</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.72784049287788</v>
       </c>
       <c r="M5">
-        <v>11.39984328746873</v>
+        <v>8.202149129360405</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.45538973790433</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.91383839268357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.63523744140455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.05641185740726</v>
+        <v>12.06614126404045</v>
       </c>
       <c r="C6">
-        <v>8.837574201176741</v>
+        <v>8.721274478560016</v>
       </c>
       <c r="D6">
-        <v>4.868422810396473</v>
+        <v>4.882687136076511</v>
       </c>
       <c r="E6">
-        <v>24.88847360194934</v>
+        <v>24.92513135856277</v>
       </c>
       <c r="F6">
-        <v>16.54435086754208</v>
+        <v>16.20955742401124</v>
       </c>
       <c r="G6">
-        <v>20.27901452019758</v>
+        <v>19.07229563452704</v>
       </c>
       <c r="H6">
-        <v>2.259565345595689</v>
+        <v>2.285302514245119</v>
       </c>
       <c r="I6">
-        <v>2.787925147252521</v>
+        <v>2.679492823027634</v>
       </c>
       <c r="J6">
-        <v>8.746582266687591</v>
+        <v>9.021077576782458</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.72842422135361</v>
       </c>
       <c r="M6">
-        <v>11.37345750247501</v>
+        <v>8.204107126377016</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.4281957471531</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.90557018434284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.62873845538692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.32589472795874</v>
+        <v>12.32534648190518</v>
       </c>
       <c r="C7">
-        <v>8.945051314307802</v>
+        <v>8.862757774460544</v>
       </c>
       <c r="D7">
-        <v>4.934425837777641</v>
+        <v>4.958367653337275</v>
       </c>
       <c r="E7">
-        <v>25.470599967436</v>
+        <v>25.5041823051399</v>
       </c>
       <c r="F7">
-        <v>16.61100980752815</v>
+        <v>16.2464954459029</v>
       </c>
       <c r="G7">
-        <v>20.34488021045204</v>
+        <v>19.17830224466443</v>
       </c>
       <c r="H7">
-        <v>2.32700583322766</v>
+        <v>2.350741457891648</v>
       </c>
       <c r="I7">
-        <v>2.745885588222347</v>
+        <v>2.643607019865981</v>
       </c>
       <c r="J7">
-        <v>8.731924217512763</v>
+        <v>8.980267204816935</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.66394173342306</v>
       </c>
       <c r="M7">
-        <v>11.5781531387662</v>
+        <v>8.158996966605962</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.63699479528136</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.90003429233861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.60378053906139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.45423736902312</v>
+        <v>13.41091803676355</v>
       </c>
       <c r="C8">
-        <v>9.383607912381537</v>
+        <v>9.449375735200146</v>
       </c>
       <c r="D8">
-        <v>5.209501404256979</v>
+        <v>5.267856108241477</v>
       </c>
       <c r="E8">
-        <v>27.89626736692102</v>
+        <v>27.91813022198361</v>
       </c>
       <c r="F8">
-        <v>16.94500441572598</v>
+        <v>16.47813137375857</v>
       </c>
       <c r="G8">
-        <v>20.70153517956517</v>
+        <v>19.55770305104559</v>
       </c>
       <c r="H8">
-        <v>2.614110146910729</v>
+        <v>2.629913628904053</v>
       </c>
       <c r="I8">
-        <v>2.559134208185778</v>
+        <v>2.488677712795769</v>
       </c>
       <c r="J8">
-        <v>8.680211711842647</v>
+        <v>8.879908114878726</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.4178349057654</v>
       </c>
       <c r="M8">
-        <v>12.43408146985456</v>
+        <v>8.013349107432976</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.51227949628467</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.90626667528892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.54264772662519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.42907324254651</v>
+        <v>15.3120483470543</v>
       </c>
       <c r="C9">
-        <v>10.16419126633195</v>
+        <v>10.50207924795695</v>
       </c>
       <c r="D9">
-        <v>5.698838551139833</v>
+        <v>5.808125843988978</v>
       </c>
       <c r="E9">
-        <v>32.13935337398465</v>
+        <v>32.1420003333695</v>
       </c>
       <c r="F9">
-        <v>17.69207221222345</v>
+        <v>17.07107838251056</v>
       </c>
       <c r="G9">
-        <v>21.55321790378768</v>
+        <v>20.19508044472451</v>
       </c>
       <c r="H9">
-        <v>3.139858077830638</v>
+        <v>3.141816060917131</v>
       </c>
       <c r="I9">
-        <v>2.740717607056539</v>
+        <v>2.784887988479157</v>
       </c>
       <c r="J9">
-        <v>8.613757101217546</v>
+        <v>8.819041899268974</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.00796226139706</v>
       </c>
       <c r="M9">
-        <v>13.94966533528833</v>
+        <v>7.911398247589077</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.06524892332103</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.99866401693756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.52923837579707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.71953564878543</v>
+        <v>16.55940519506996</v>
       </c>
       <c r="C10">
-        <v>10.7228104479521</v>
+        <v>11.22169428183071</v>
       </c>
       <c r="D10">
-        <v>6.061225585824529</v>
+        <v>6.219572268258815</v>
       </c>
       <c r="E10">
-        <v>34.0684558181523</v>
+        <v>34.05639877580485</v>
       </c>
       <c r="F10">
-        <v>18.13182881674043</v>
+        <v>17.33011950369287</v>
       </c>
       <c r="G10">
-        <v>21.98281620065949</v>
+        <v>20.90853587225034</v>
       </c>
       <c r="H10">
-        <v>3.470055004816076</v>
+        <v>3.461101343778466</v>
       </c>
       <c r="I10">
-        <v>2.973560592021861</v>
+        <v>2.989548620876189</v>
       </c>
       <c r="J10">
-        <v>8.541498129829129</v>
+        <v>8.571716336870049</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.66062823417776</v>
       </c>
       <c r="M10">
-        <v>14.96633912108992</v>
+        <v>7.849500440730645</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.10073379713255</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.99966049790873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.40106688824401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.24238805505704</v>
+        <v>17.09420389351008</v>
       </c>
       <c r="C11">
-        <v>10.95215288079202</v>
+        <v>11.4044850365434</v>
       </c>
       <c r="D11">
-        <v>6.458302482903343</v>
+        <v>6.652474340230468</v>
       </c>
       <c r="E11">
-        <v>27.41536695073651</v>
+        <v>27.39663087924872</v>
       </c>
       <c r="F11">
-        <v>17.25498574939883</v>
+        <v>16.34670929002438</v>
       </c>
       <c r="G11">
-        <v>20.27535455047255</v>
+        <v>20.16653474775503</v>
       </c>
       <c r="H11">
-        <v>3.912435138684565</v>
+        <v>3.900962685360877</v>
       </c>
       <c r="I11">
-        <v>3.036946162197831</v>
+        <v>3.044700796763584</v>
       </c>
       <c r="J11">
-        <v>8.2093401259238</v>
+        <v>7.995940688239356</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.21752799748084</v>
       </c>
       <c r="M11">
-        <v>15.38438661415789</v>
+        <v>7.393876526340126</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.50047255527042</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.22187456662905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.57005467751309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.43561177146109</v>
+        <v>17.30498378325374</v>
       </c>
       <c r="C12">
-        <v>10.99606806121155</v>
+        <v>11.3798585937242</v>
       </c>
       <c r="D12">
-        <v>6.715585141781457</v>
+        <v>6.919633514350686</v>
       </c>
       <c r="E12">
-        <v>21.39131290565055</v>
+        <v>21.36979236953968</v>
       </c>
       <c r="F12">
-        <v>16.44789120880238</v>
+        <v>15.53734819241914</v>
       </c>
       <c r="G12">
-        <v>18.80215167739421</v>
+        <v>19.17683124462141</v>
       </c>
       <c r="H12">
-        <v>4.841301514490745</v>
+        <v>4.831729712986234</v>
       </c>
       <c r="I12">
-        <v>3.043020146666906</v>
+        <v>3.048442070374933</v>
       </c>
       <c r="J12">
-        <v>7.957582911891056</v>
+        <v>7.724507815775204</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.979674877134228</v>
       </c>
       <c r="M12">
-        <v>15.5241039946904</v>
+        <v>7.066810844995164</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.62269443787126</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.59655567854384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.96760007265874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.3821998207274</v>
+        <v>17.27466620183158</v>
       </c>
       <c r="C13">
-        <v>10.94036132455919</v>
+        <v>11.2399686337398</v>
       </c>
       <c r="D13">
-        <v>6.893127952609622</v>
+        <v>7.079241520884766</v>
       </c>
       <c r="E13">
-        <v>15.32685771703816</v>
+        <v>15.30547631092351</v>
       </c>
       <c r="F13">
-        <v>15.59472559260084</v>
+        <v>14.79646485287084</v>
       </c>
       <c r="G13">
-        <v>17.33715238972063</v>
+        <v>17.67677352889431</v>
       </c>
       <c r="H13">
-        <v>5.965665913214679</v>
+        <v>5.959227353077753</v>
       </c>
       <c r="I13">
-        <v>3.009956990752545</v>
+        <v>3.019604982724499</v>
       </c>
       <c r="J13">
-        <v>7.741589392230683</v>
+        <v>7.640234631104567</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.848999992153299</v>
       </c>
       <c r="M13">
-        <v>15.47106652749763</v>
+        <v>6.817314692571953</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.552321652217</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.02240413925947</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.49474066845857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.23067479130145</v>
+        <v>17.14215351245586</v>
       </c>
       <c r="C14">
-        <v>10.86461578368291</v>
+        <v>11.09747828317014</v>
       </c>
       <c r="D14">
-        <v>6.984693566232523</v>
+        <v>7.145295944253043</v>
       </c>
       <c r="E14">
-        <v>11.05376937706706</v>
+        <v>11.03349163465564</v>
       </c>
       <c r="F14">
-        <v>14.96776206371531</v>
+        <v>14.29711232457952</v>
       </c>
       <c r="G14">
-        <v>16.30865713612257</v>
+        <v>16.40299948107549</v>
       </c>
       <c r="H14">
-        <v>6.822924531907606</v>
+        <v>6.818602222857266</v>
       </c>
       <c r="I14">
-        <v>2.970840356403736</v>
+        <v>2.986638526711284</v>
       </c>
       <c r="J14">
-        <v>7.606996585613645</v>
+        <v>7.641070278418653</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.796262363715421</v>
       </c>
       <c r="M14">
-        <v>15.3483497631524</v>
+        <v>6.681384691690647</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.41717846978159</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.64483991068949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.21714560496236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.13711886103195</v>
+        <v>17.05467105686754</v>
       </c>
       <c r="C15">
-        <v>10.83458115035919</v>
+        <v>11.04762514824256</v>
       </c>
       <c r="D15">
-        <v>6.991902847667901</v>
+        <v>7.140729748783937</v>
       </c>
       <c r="E15">
-        <v>10.00538288734645</v>
+        <v>9.986559544064972</v>
       </c>
       <c r="F15">
-        <v>14.79771118338061</v>
+        <v>14.17912513512728</v>
       </c>
       <c r="G15">
-        <v>16.04750497597978</v>
+        <v>15.99348901177943</v>
       </c>
       <c r="H15">
-        <v>7.020292465020662</v>
+        <v>7.016668810211901</v>
       </c>
       <c r="I15">
-        <v>2.953757740128448</v>
+        <v>2.973007446212935</v>
       </c>
       <c r="J15">
-        <v>7.57971326234904</v>
+        <v>7.665842750525257</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.795751330103835</v>
       </c>
       <c r="M15">
-        <v>15.27871311118877</v>
+        <v>6.660881370663932</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.34439303719757</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.55867247002121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.16761872640622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.6142681440347</v>
+        <v>16.54444473733958</v>
       </c>
       <c r="C16">
-        <v>10.6266258047265</v>
+        <v>10.80462334207861</v>
       </c>
       <c r="D16">
-        <v>6.818087052431471</v>
+        <v>6.921176918439969</v>
       </c>
       <c r="E16">
-        <v>9.921246709188349</v>
+        <v>9.915290735722833</v>
       </c>
       <c r="F16">
-        <v>14.7427848928278</v>
+        <v>14.29470969653384</v>
       </c>
       <c r="G16">
-        <v>16.10773655742478</v>
+        <v>15.35060714296671</v>
       </c>
       <c r="H16">
-        <v>6.75121540108761</v>
+        <v>6.750083996140501</v>
       </c>
       <c r="I16">
-        <v>2.864362735621562</v>
+        <v>2.898162535983355</v>
       </c>
       <c r="J16">
-        <v>7.65197320984938</v>
+        <v>7.922316671126245</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.930051341775304</v>
       </c>
       <c r="M16">
-        <v>14.8728494362678</v>
+        <v>6.79845906045686</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.93813676730347</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.66643051837274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.3766182734981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.2879460591089</v>
+        <v>16.21785898556369</v>
       </c>
       <c r="C17">
-        <v>10.50734143716605</v>
+        <v>10.69169566543256</v>
       </c>
       <c r="D17">
-        <v>6.631830813927501</v>
+        <v>6.718941904447896</v>
       </c>
       <c r="E17">
-        <v>12.20697099865406</v>
+        <v>12.20741679841261</v>
       </c>
       <c r="F17">
-        <v>15.03945448395862</v>
+        <v>14.63611628994938</v>
       </c>
       <c r="G17">
-        <v>16.70021154705808</v>
+        <v>15.62989602791488</v>
       </c>
       <c r="H17">
-        <v>6.039279182989221</v>
+        <v>6.039384597979054</v>
       </c>
       <c r="I17">
-        <v>2.816218042587739</v>
+        <v>2.857631529549686</v>
       </c>
       <c r="J17">
-        <v>7.777554123726431</v>
+        <v>8.121757449182303</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.07291704058984</v>
       </c>
       <c r="M17">
-        <v>14.62346152229976</v>
+        <v>6.962953966485673</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.69450022214677</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.94598993490497</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.67487681791165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.10920521354261</v>
+        <v>16.02654534452721</v>
       </c>
       <c r="C18">
-        <v>10.43215416399283</v>
+        <v>10.66321042827034</v>
       </c>
       <c r="D18">
-        <v>6.411837398758796</v>
+        <v>6.500114334959394</v>
       </c>
       <c r="E18">
-        <v>16.96760316713191</v>
+        <v>16.96950043220015</v>
       </c>
       <c r="F18">
-        <v>15.6890019281541</v>
+        <v>15.2561865353276</v>
       </c>
       <c r="G18">
-        <v>17.85924045607629</v>
+        <v>16.59939594467222</v>
       </c>
       <c r="H18">
-        <v>4.936957038629005</v>
+        <v>4.937617226203388</v>
       </c>
       <c r="I18">
-        <v>2.797014126103298</v>
+        <v>2.839921509388485</v>
       </c>
       <c r="J18">
-        <v>7.971108960861795</v>
+        <v>8.32854182626189</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.26309122026781</v>
       </c>
       <c r="M18">
-        <v>14.48198242449329</v>
+        <v>7.188875910184523</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.56594216948525</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.42524711467626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.12228351413141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.05252788983001</v>
+        <v>15.94860183130985</v>
       </c>
       <c r="C19">
-        <v>10.45589439046095</v>
+        <v>10.76479872957954</v>
       </c>
       <c r="D19">
-        <v>6.19544057747999</v>
+        <v>6.294737696125383</v>
       </c>
       <c r="E19">
-        <v>23.36056019961212</v>
+        <v>23.36113940471307</v>
       </c>
       <c r="F19">
-        <v>16.52628591718931</v>
+        <v>16.02006208150883</v>
       </c>
       <c r="G19">
-        <v>19.32603525376818</v>
+        <v>17.92515039731089</v>
       </c>
       <c r="H19">
-        <v>3.835253548153202</v>
+        <v>3.835561734195843</v>
       </c>
       <c r="I19">
-        <v>2.815685482486711</v>
+        <v>2.857245017721302</v>
       </c>
       <c r="J19">
-        <v>8.198528179596508</v>
+        <v>8.534320440543071</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.47522816572612</v>
       </c>
       <c r="M19">
-        <v>14.45418864401173</v>
+        <v>7.444124056789078</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.55561314621101</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.01244087861661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.64625628031234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.36744292202063</v>
+        <v>16.21859092100648</v>
       </c>
       <c r="C20">
-        <v>10.65989727552185</v>
+        <v>11.12737702579742</v>
       </c>
       <c r="D20">
-        <v>5.984833658766905</v>
+        <v>6.120016356169492</v>
       </c>
       <c r="E20">
-        <v>33.53290434207238</v>
+        <v>33.52591728790964</v>
       </c>
       <c r="F20">
-        <v>17.92938713275392</v>
+        <v>17.22840525450403</v>
       </c>
       <c r="G20">
-        <v>21.71604550259443</v>
+        <v>20.31801496841419</v>
       </c>
       <c r="H20">
-        <v>3.381156713863659</v>
+        <v>3.375970650457964</v>
       </c>
       <c r="I20">
-        <v>2.923243221816663</v>
+        <v>2.951259550005622</v>
       </c>
       <c r="J20">
-        <v>8.534218559269933</v>
+        <v>8.722560069623864</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.72782944229007</v>
       </c>
       <c r="M20">
-        <v>14.72454138602668</v>
+        <v>7.832180634771103</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.85563872653258</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.93367785247455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.4094924266895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.31939645737455</v>
+        <v>17.13792078487259</v>
       </c>
       <c r="C21">
-        <v>11.07336738055966</v>
+        <v>11.64024377844609</v>
       </c>
       <c r="D21">
-        <v>6.209286023841341</v>
+        <v>6.436515653353784</v>
       </c>
       <c r="E21">
-        <v>36.28504726575667</v>
+        <v>36.26084190386476</v>
       </c>
       <c r="F21">
-        <v>18.48001023526581</v>
+        <v>17.3660701261108</v>
       </c>
       <c r="G21">
-        <v>22.42419380430278</v>
+        <v>22.56166379954355</v>
       </c>
       <c r="H21">
-        <v>3.681954010633686</v>
+        <v>3.663884076484988</v>
       </c>
       <c r="I21">
-        <v>3.105399644435402</v>
+        <v>3.104553341928693</v>
       </c>
       <c r="J21">
-        <v>8.541242684070081</v>
+        <v>8.069493392394547</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.4557837048545</v>
       </c>
       <c r="M21">
-        <v>15.4753120615534</v>
+        <v>7.77621147861484</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.61325332823947</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.09446374924661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.26377727506212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.92138367208039</v>
+        <v>17.72131323978863</v>
       </c>
       <c r="C22">
-        <v>11.30296951389443</v>
+        <v>11.92367729115061</v>
       </c>
       <c r="D22">
-        <v>6.358493554795327</v>
+        <v>6.647360980668402</v>
       </c>
       <c r="E22">
-        <v>37.57443266489409</v>
+        <v>37.5393893834025</v>
       </c>
       <c r="F22">
-        <v>18.81340219048138</v>
+        <v>17.4170966917833</v>
       </c>
       <c r="G22">
-        <v>22.84067422537002</v>
+        <v>24.10074847419556</v>
       </c>
       <c r="H22">
-        <v>3.857261728959701</v>
+        <v>3.83108509449192</v>
       </c>
       <c r="I22">
-        <v>3.216017986202985</v>
+        <v>3.195763529682628</v>
       </c>
       <c r="J22">
-        <v>8.541515649846268</v>
+        <v>7.682342225904902</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.27817959545686</v>
       </c>
       <c r="M22">
-        <v>15.9386669267462</v>
+        <v>7.740421138296084</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.07950803363459</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.18564663972069</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.14110937737178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.61097124834639</v>
+        <v>17.41982091557373</v>
       </c>
       <c r="C23">
-        <v>11.15069659884335</v>
+        <v>11.74651812387742</v>
       </c>
       <c r="D23">
-        <v>6.273651217181324</v>
+        <v>6.522414251041766</v>
       </c>
       <c r="E23">
-        <v>36.89179878834332</v>
+        <v>36.86313649366765</v>
       </c>
       <c r="F23">
-        <v>18.6643877540876</v>
+        <v>17.45259867075653</v>
       </c>
       <c r="G23">
-        <v>22.66956680600718</v>
+        <v>23.13972456479665</v>
       </c>
       <c r="H23">
-        <v>3.76438977513598</v>
+        <v>3.742987406569245</v>
       </c>
       <c r="I23">
-        <v>3.15323682357516</v>
+        <v>3.142650075159915</v>
       </c>
       <c r="J23">
-        <v>8.550068942356376</v>
+        <v>7.943649882542833</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.39335977245146</v>
       </c>
       <c r="M23">
-        <v>15.6862657339771</v>
+        <v>7.792373415183847</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.82712520455118</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.15871786103249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.25300599154606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.36704662614408</v>
+        <v>16.21562972787688</v>
       </c>
       <c r="C24">
-        <v>10.61129071964212</v>
+        <v>11.08394018099991</v>
       </c>
       <c r="D24">
-        <v>5.950831896008189</v>
+        <v>6.086481780555207</v>
       </c>
       <c r="E24">
-        <v>34.19458611568488</v>
+        <v>34.1874723595154</v>
       </c>
       <c r="F24">
-        <v>18.0628482902245</v>
+        <v>17.35414047902283</v>
       </c>
       <c r="G24">
-        <v>21.95702215707221</v>
+        <v>20.5314521508386</v>
       </c>
       <c r="H24">
-        <v>3.404878423138979</v>
+        <v>3.399586169268527</v>
       </c>
       <c r="I24">
-        <v>2.917923713530628</v>
+        <v>2.943618993990528</v>
       </c>
       <c r="J24">
-        <v>8.574750768801737</v>
+        <v>8.76272338051513</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.77803534232769</v>
       </c>
       <c r="M24">
-        <v>14.70441336081209</v>
+        <v>7.891768733610309</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.83749078487703</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.03548786761621</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.50344217824006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.90727389059984</v>
+        <v>14.80928451939523</v>
       </c>
       <c r="C25">
-        <v>10.00614359299693</v>
+        <v>10.27863251711777</v>
       </c>
       <c r="D25">
-        <v>5.580392619389245</v>
+        <v>5.672037652625551</v>
       </c>
       <c r="E25">
-        <v>31.04543250073863</v>
+        <v>31.05365578313495</v>
       </c>
       <c r="F25">
-        <v>17.4376170500036</v>
+        <v>16.88114770299281</v>
       </c>
       <c r="G25">
-        <v>21.23091727456257</v>
+        <v>19.82816165189935</v>
       </c>
       <c r="H25">
-        <v>3.000930185974396</v>
+        <v>3.006987688323524</v>
       </c>
       <c r="I25">
-        <v>2.657153894935934</v>
+        <v>2.714149990678722</v>
       </c>
       <c r="J25">
-        <v>8.615391071399426</v>
+        <v>8.867297415079266</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.09968119530543</v>
       </c>
       <c r="M25">
-        <v>13.56777596454754</v>
+        <v>7.904960751497454</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.67431824811222</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.93331729546738</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.51012038879173</v>
       </c>
     </row>
   </sheetData>
